--- a/Proyecto.xlsx
+++ b/Proyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Fernando\Desktop\ProyectoIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96092F6-22B5-47AE-B3A4-E91C39B2D306}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CF6DDB-3049-41E0-943B-490F3A6ECBE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{97FEDD2B-9BBD-475A-9893-575535BD16D8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5618" uniqueCount="3914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5714" uniqueCount="4010">
   <si>
     <t>Tinamidae</t>
   </si>
@@ -11477,304 +11477,592 @@
     <t>Cutín Cualita</t>
   </si>
   <si>
-    <t>1_Allobates femoralis.MP3</t>
-  </si>
-  <si>
-    <t>15_Centrolene lynchi.MP3</t>
-  </si>
-  <si>
-    <t>16_Centrolene peristictum.MP3</t>
-  </si>
-  <si>
-    <t>17_Chimerella mariaelenae.MP3</t>
-  </si>
-  <si>
-    <t>18_Cochranella mache.MP3</t>
-  </si>
-  <si>
-    <t>19_Espadarana audax.MP3</t>
-  </si>
-  <si>
-    <t>20_Espadarana prosoblepon.MP3</t>
-  </si>
-  <si>
-    <t>21_Hyalinobatrachium fleischmanni.MP3</t>
-  </si>
-  <si>
-    <t>22_Hyalinobatrachium pellucidum.MP3</t>
-  </si>
-  <si>
-    <t>2_Allobates fratisenescus.MP3</t>
-  </si>
-  <si>
-    <t>3_Allobates insperatus.MP3</t>
-  </si>
-  <si>
-    <t>4_Allobates zaparo.MP3</t>
-  </si>
-  <si>
-    <t>5_Amazophrynella siona.MP3</t>
-  </si>
-  <si>
-    <t>6_Atelopus balios.MP3</t>
-  </si>
-  <si>
-    <t>14_Centrolene condor.MP3</t>
-  </si>
-  <si>
-    <t>13_Centrolene buckleyi.MP3</t>
-  </si>
-  <si>
-    <t>12_Rhinella marina.MP3</t>
-  </si>
-  <si>
-    <t>7_Atelopus spumarius.MP3</t>
-  </si>
-  <si>
-    <t>8_Rhaebo guttatus.MP3</t>
-  </si>
-  <si>
-    <t>9_Rhaebo olallai.MP3</t>
-  </si>
-  <si>
-    <t>10_Rhinella horribilis.MP3</t>
-  </si>
-  <si>
-    <t>11_Rhinella margaritifera.MP3</t>
-  </si>
-  <si>
-    <t>23_Nymphargus grandisonae.MP3</t>
-  </si>
-  <si>
-    <t>24_Nymphargus griffithsi.MP3</t>
-  </si>
-  <si>
-    <t>25_Nymphargus lasgralarias.MP3</t>
-  </si>
-  <si>
-    <t>26_Nymphargus siren.MP3</t>
-  </si>
-  <si>
-    <t>27_Rulyrana flavopunctata.MP3</t>
-  </si>
-  <si>
-    <t>28_Teratohyla midas.MP3</t>
-  </si>
-  <si>
-    <t>29_Teratohyla spinosa.MP3</t>
-  </si>
-  <si>
-    <t>30_Vitreorana ritae.MP3</t>
-  </si>
-  <si>
-    <t>31_Ceratophrys cornuta.MP3</t>
-  </si>
-  <si>
-    <t>32_Ceratophrys stolzmanni.MP3</t>
-  </si>
-  <si>
-    <t>33_Ameerega bilinguis.MP3</t>
-  </si>
-  <si>
-    <t>34_Ameerega hahneli.MP3</t>
-  </si>
-  <si>
-    <t>35_Ameerega parvula.MP3</t>
-  </si>
-  <si>
-    <t>36_Epipedobates anthonyi.MP3</t>
-  </si>
-  <si>
-    <t>37_Epipedobates boulengeri.MP3</t>
-  </si>
-  <si>
-    <t>38_Epipedobates darwinwallacei.MP3</t>
-  </si>
-  <si>
-    <t>39_Epipedobates machalilla.MP3</t>
-  </si>
-  <si>
-    <t>40_Epipedobates tricolor.MP3</t>
-  </si>
-  <si>
-    <t>41_Excidobates captivus.MP3</t>
-  </si>
-  <si>
-    <t>42_Hyloxalus awa.MP3</t>
-  </si>
-  <si>
-    <t>43_Hyloxalus bocagei.MP3</t>
-  </si>
-  <si>
-    <t>44_Hyloxalus elachyhistus.MP3</t>
-  </si>
-  <si>
-    <t>45_Hyloxalus infraguttatus.MP3</t>
-  </si>
-  <si>
-    <t>65_Boana almendarizae.MP3</t>
-  </si>
-  <si>
-    <t>46_Hyloxalus jacobuspetersi.MP3</t>
-  </si>
-  <si>
-    <t>47_Hyloxalus maculosus.MP3</t>
-  </si>
-  <si>
-    <t>48_Hyloxalus mystax.MP3</t>
-  </si>
-  <si>
-    <t>49_Hyloxalus nexipus.MP3</t>
-  </si>
-  <si>
-    <t>50_Hyloxalus pulchellus.MP3</t>
-  </si>
-  <si>
-    <t>51_Hyloxalus sauli.MP3</t>
-  </si>
-  <si>
-    <t>52_Hyloxalus toachi.MP3</t>
-  </si>
-  <si>
-    <t>53_Hyloxalus yasuni.MP3</t>
-  </si>
-  <si>
-    <t>54_Leucostethus fugax.MP3</t>
-  </si>
-  <si>
-    <t>55_Oophaga sylvatica.MP3</t>
-  </si>
-  <si>
-    <t>56_Diasporus gularis.MP3</t>
-  </si>
-  <si>
-    <t>57_Gastrotheca lojana.MP3</t>
-  </si>
-  <si>
-    <t>58_Gastrotheca plumbea.MP3</t>
-  </si>
-  <si>
-    <t>59_Gastrotheca riobambae.MP3</t>
-  </si>
-  <si>
-    <t>60_Gastrotheca testudinea.MP3</t>
-  </si>
-  <si>
-    <t>100_Hyloscirtus psarolaimus.MP3</t>
-  </si>
-  <si>
-    <t>99_Hyloscirtus phyllognathus.MP3</t>
-  </si>
-  <si>
-    <t>98_Hyloscirtus pantostictus.MP3</t>
-  </si>
-  <si>
-    <t>97_Hyloscirtus palmeri.MP3</t>
-  </si>
-  <si>
-    <t>61_Agalychnis buckleyi.MP3</t>
-  </si>
-  <si>
-    <t>62_Agalychnis hulli.MP3</t>
-  </si>
-  <si>
-    <t>63_Agalychnis spurrelli.MP3</t>
-  </si>
-  <si>
-    <t>64_Boana alfaroi.MP3</t>
-  </si>
-  <si>
-    <t>66_Boana boans.MP3</t>
-  </si>
-  <si>
-    <t>67_Boana calcarata.MP3</t>
-  </si>
-  <si>
-    <t>68_Boana cinerascens.MP3</t>
-  </si>
-  <si>
-    <t>69_Boana fasciata.MP3</t>
-  </si>
-  <si>
-    <t>70_Boana geographica.MP3</t>
-  </si>
-  <si>
-    <t>71_Boana lanciformis.MP3</t>
-  </si>
-  <si>
-    <t>72_Boana maculateralis.MP3</t>
-  </si>
-  <si>
-    <t>73_Boana nympha.MP3</t>
-  </si>
-  <si>
-    <t>74_Boana pellucens.MP3</t>
-  </si>
-  <si>
-    <t>75_Boana picturata.MP3</t>
-  </si>
-  <si>
-    <t>76_Boana punctata.MP3</t>
-  </si>
-  <si>
-    <t>96_Hyloscirtus condor.MP3</t>
-  </si>
-  <si>
-    <t>77_Boana rosenbergi.MP3</t>
-  </si>
-  <si>
-    <t>78_Boana tetete.MP3</t>
-  </si>
-  <si>
-    <t>79_Cruziohyla craspedopus.MP3</t>
-  </si>
-  <si>
-    <t>80_Dendropsophus bifurcus.MP3</t>
-  </si>
-  <si>
-    <t>81_Dendropsophus bokermanni.MP3</t>
-  </si>
-  <si>
-    <t>82_Dendropsophus brevifrons.MP3</t>
-  </si>
-  <si>
-    <t>83_Dendropsophus carnifex.MP3</t>
-  </si>
-  <si>
-    <t>84_Dendropsophus ebraccatus.MP3</t>
-  </si>
-  <si>
-    <t>85_Dendropsophus gryllatus.MP3</t>
-  </si>
-  <si>
-    <t>86_Dendropsophus marmoratus.MP3</t>
-  </si>
-  <si>
-    <t>87_Dendropsophus minutus.MP3</t>
-  </si>
-  <si>
-    <t>88_Dendropsophus parviceps.MP3</t>
-  </si>
-  <si>
-    <t>89_Dendropsophus reticulatus.MP3</t>
-  </si>
-  <si>
-    <t>90_Dendropsophus rhodopeplus.MP3</t>
-  </si>
-  <si>
-    <t>91_Dendropsophus sarayacuensis.MP3</t>
-  </si>
-  <si>
-    <t>92_Dendropsophus shiwiarum.MP3</t>
-  </si>
-  <si>
-    <t>93_Dendropsophus triangulum.MP3</t>
-  </si>
-  <si>
-    <t>94_Hyloscirtus albopunctulatus.MP3</t>
-  </si>
-  <si>
-    <t>95_Hyloscirtus alytolylax.MP3</t>
+    <t>1.MP3</t>
+  </si>
+  <si>
+    <t>2.MP3</t>
+  </si>
+  <si>
+    <t>3.MP3</t>
+  </si>
+  <si>
+    <t>4.MP3</t>
+  </si>
+  <si>
+    <t>6.MP3</t>
+  </si>
+  <si>
+    <t>5.MP3</t>
+  </si>
+  <si>
+    <t>7.MP3</t>
+  </si>
+  <si>
+    <t>8.MP3</t>
+  </si>
+  <si>
+    <t>9.MP3</t>
+  </si>
+  <si>
+    <t>11.MP3</t>
+  </si>
+  <si>
+    <t>10.MP3</t>
+  </si>
+  <si>
+    <t>12.MP3</t>
+  </si>
+  <si>
+    <t>13.MP3</t>
+  </si>
+  <si>
+    <t>14.MP3</t>
+  </si>
+  <si>
+    <t>15.MP3</t>
+  </si>
+  <si>
+    <t>16.MP3</t>
+  </si>
+  <si>
+    <t>17.MP3</t>
+  </si>
+  <si>
+    <t>39.MP3</t>
+  </si>
+  <si>
+    <t>38.MP3</t>
+  </si>
+  <si>
+    <t>37.MP3</t>
+  </si>
+  <si>
+    <t>36.MP3</t>
+  </si>
+  <si>
+    <t>35.MP3</t>
+  </si>
+  <si>
+    <t>34.MP3</t>
+  </si>
+  <si>
+    <t>33.MP3</t>
+  </si>
+  <si>
+    <t>18.MP3</t>
+  </si>
+  <si>
+    <t>19.MP3</t>
+  </si>
+  <si>
+    <t>20.MP3</t>
+  </si>
+  <si>
+    <t>21.MP3</t>
+  </si>
+  <si>
+    <t>22.MP3</t>
+  </si>
+  <si>
+    <t>23.MP3</t>
+  </si>
+  <si>
+    <t>24.MP3</t>
+  </si>
+  <si>
+    <t>25.MP3</t>
+  </si>
+  <si>
+    <t>26.MP3</t>
+  </si>
+  <si>
+    <t>27.MP3</t>
+  </si>
+  <si>
+    <t>28.MP3</t>
+  </si>
+  <si>
+    <t>100.MP3</t>
+  </si>
+  <si>
+    <t>101.MP3</t>
+  </si>
+  <si>
+    <t>102.MP3</t>
+  </si>
+  <si>
+    <t>103.MP3</t>
+  </si>
+  <si>
+    <t>104.MP3</t>
+  </si>
+  <si>
+    <t>105.MP3</t>
+  </si>
+  <si>
+    <t>106.MP3</t>
+  </si>
+  <si>
+    <t>107.MP3</t>
+  </si>
+  <si>
+    <t>108.MP3</t>
+  </si>
+  <si>
+    <t>109.MP3</t>
+  </si>
+  <si>
+    <t>110.MP3</t>
+  </si>
+  <si>
+    <t>111.MP3</t>
+  </si>
+  <si>
+    <t>99.MP3</t>
+  </si>
+  <si>
+    <t>98.MP3</t>
+  </si>
+  <si>
+    <t>97.MP3</t>
+  </si>
+  <si>
+    <t>96.MP3</t>
+  </si>
+  <si>
+    <t>95.MP3</t>
+  </si>
+  <si>
+    <t>94.MP3</t>
+  </si>
+  <si>
+    <t>93.MP3</t>
+  </si>
+  <si>
+    <t>29.MP3</t>
+  </si>
+  <si>
+    <t>30.MP3</t>
+  </si>
+  <si>
+    <t>32.MP3</t>
+  </si>
+  <si>
+    <t>31.MP3</t>
+  </si>
+  <si>
+    <t>40.MP3</t>
+  </si>
+  <si>
+    <t>41.MP3</t>
+  </si>
+  <si>
+    <t>42.MP3</t>
+  </si>
+  <si>
+    <t>43.MP3</t>
+  </si>
+  <si>
+    <t>44.MP3</t>
+  </si>
+  <si>
+    <t>45.MP3</t>
+  </si>
+  <si>
+    <t>46.MP3</t>
+  </si>
+  <si>
+    <t>47.MP3</t>
+  </si>
+  <si>
+    <t>92.MP3</t>
+  </si>
+  <si>
+    <t>91.MP3</t>
+  </si>
+  <si>
+    <t>90.MP3</t>
+  </si>
+  <si>
+    <t>78.MP3</t>
+  </si>
+  <si>
+    <t>79.MP3</t>
+  </si>
+  <si>
+    <t>80.MP3</t>
+  </si>
+  <si>
+    <t>81.MP3</t>
+  </si>
+  <si>
+    <t>82.MP3</t>
+  </si>
+  <si>
+    <t>83.MP3</t>
+  </si>
+  <si>
+    <t>84.MP3</t>
+  </si>
+  <si>
+    <t>85.MP3</t>
+  </si>
+  <si>
+    <t>86.MP3</t>
+  </si>
+  <si>
+    <t>87.MP3</t>
+  </si>
+  <si>
+    <t>88.MP3</t>
+  </si>
+  <si>
+    <t>89.MP3</t>
+  </si>
+  <si>
+    <t>48.MP3</t>
+  </si>
+  <si>
+    <t>49.MP3</t>
+  </si>
+  <si>
+    <t>50.MP3</t>
+  </si>
+  <si>
+    <t>51.MP3</t>
+  </si>
+  <si>
+    <t>52.MP3</t>
+  </si>
+  <si>
+    <t>53.MP3</t>
+  </si>
+  <si>
+    <t>54.MP3</t>
+  </si>
+  <si>
+    <t>55.MP3</t>
+  </si>
+  <si>
+    <t>56.MP3</t>
+  </si>
+  <si>
+    <t>57.MP3</t>
+  </si>
+  <si>
+    <t>58.MP3</t>
+  </si>
+  <si>
+    <t>59.MP3</t>
+  </si>
+  <si>
+    <t>60.MP3</t>
+  </si>
+  <si>
+    <t>61.MP3</t>
+  </si>
+  <si>
+    <t>62.MP3</t>
+  </si>
+  <si>
+    <t>63.MP3</t>
+  </si>
+  <si>
+    <t>64.MP3</t>
+  </si>
+  <si>
+    <t>65.MP3</t>
+  </si>
+  <si>
+    <t>66.MP3</t>
+  </si>
+  <si>
+    <t>67.MP3</t>
+  </si>
+  <si>
+    <t>68.MP3</t>
+  </si>
+  <si>
+    <t>69.MP3</t>
+  </si>
+  <si>
+    <t>70.MP3</t>
+  </si>
+  <si>
+    <t>71.MP3</t>
+  </si>
+  <si>
+    <t>72.MP3</t>
+  </si>
+  <si>
+    <t>73.MP3</t>
+  </si>
+  <si>
+    <t>74.MP3</t>
+  </si>
+  <si>
+    <t>75.MP3</t>
+  </si>
+  <si>
+    <t>76.MP3</t>
+  </si>
+  <si>
+    <t>77.MP3</t>
+  </si>
+  <si>
+    <t>196.MP3</t>
+  </si>
+  <si>
+    <t>195.MP3</t>
+  </si>
+  <si>
+    <t>194.MP3</t>
+  </si>
+  <si>
+    <t>193.MP3</t>
+  </si>
+  <si>
+    <t>192.MP3</t>
+  </si>
+  <si>
+    <t>191.MP3</t>
+  </si>
+  <si>
+    <t>190.MP3</t>
+  </si>
+  <si>
+    <t>189.MP3</t>
+  </si>
+  <si>
+    <t>188.MP3</t>
+  </si>
+  <si>
+    <t>187.MP3</t>
+  </si>
+  <si>
+    <t>186.MP3</t>
+  </si>
+  <si>
+    <t>185.MP3</t>
+  </si>
+  <si>
+    <t>184.MP3</t>
+  </si>
+  <si>
+    <t>183.MP3</t>
+  </si>
+  <si>
+    <t>167.MP3</t>
+  </si>
+  <si>
+    <t>168.MP3</t>
+  </si>
+  <si>
+    <t>169.MP3</t>
+  </si>
+  <si>
+    <t>170.MP3</t>
+  </si>
+  <si>
+    <t>171.MP3</t>
+  </si>
+  <si>
+    <t>172.MP3</t>
+  </si>
+  <si>
+    <t>173.MP3</t>
+  </si>
+  <si>
+    <t>174.MP3</t>
+  </si>
+  <si>
+    <t>175.MP3</t>
+  </si>
+  <si>
+    <t>181.MP3</t>
+  </si>
+  <si>
+    <t>182.MP3</t>
+  </si>
+  <si>
+    <t>180.MP3</t>
+  </si>
+  <si>
+    <t>179.MP3</t>
+  </si>
+  <si>
+    <t>178.MP3</t>
+  </si>
+  <si>
+    <t>177.MP3</t>
+  </si>
+  <si>
+    <t>176.MP3</t>
+  </si>
+  <si>
+    <t>166.MP3</t>
+  </si>
+  <si>
+    <t>165.MP3</t>
+  </si>
+  <si>
+    <t>164.MP3</t>
+  </si>
+  <si>
+    <t>163.MP3</t>
+  </si>
+  <si>
+    <t>112.MP3</t>
+  </si>
+  <si>
+    <t>158.MP3</t>
+  </si>
+  <si>
+    <t>159.MP3</t>
+  </si>
+  <si>
+    <t>160.MP3</t>
+  </si>
+  <si>
+    <t>161.MP3</t>
+  </si>
+  <si>
+    <t>162.MP3</t>
+  </si>
+  <si>
+    <t>157.MP3</t>
+  </si>
+  <si>
+    <t>156.MP3</t>
+  </si>
+  <si>
+    <t>155.MP3</t>
+  </si>
+  <si>
+    <t>154.MP3</t>
+  </si>
+  <si>
+    <t>153.MP3</t>
+  </si>
+  <si>
+    <t>152.MP3</t>
+  </si>
+  <si>
+    <t>151.MP3</t>
+  </si>
+  <si>
+    <t>150.MP3</t>
+  </si>
+  <si>
+    <t>149.MP3</t>
+  </si>
+  <si>
+    <t>148.MP3</t>
+  </si>
+  <si>
+    <t>147.MP3</t>
+  </si>
+  <si>
+    <t>146.MP3</t>
+  </si>
+  <si>
+    <t>145.MP3</t>
+  </si>
+  <si>
+    <t>140.MP3</t>
+  </si>
+  <si>
+    <t>141.MP3</t>
+  </si>
+  <si>
+    <t>142.MP3</t>
+  </si>
+  <si>
+    <t>143.MP3</t>
+  </si>
+  <si>
+    <t>144.MP3</t>
+  </si>
+  <si>
+    <t>139.MP3</t>
+  </si>
+  <si>
+    <t>138.MP3</t>
+  </si>
+  <si>
+    <t>137.MP3</t>
+  </si>
+  <si>
+    <t>136.MP3</t>
+  </si>
+  <si>
+    <t>135.MP3</t>
+  </si>
+  <si>
+    <t>133.MP3</t>
+  </si>
+  <si>
+    <t>132.MP3</t>
+  </si>
+  <si>
+    <t>131.MP3</t>
+  </si>
+  <si>
+    <t>129.MP3</t>
+  </si>
+  <si>
+    <t>130.MP3</t>
+  </si>
+  <si>
+    <t>134.MP3</t>
+  </si>
+  <si>
+    <t>113.MP3</t>
+  </si>
+  <si>
+    <t>114.MP3</t>
+  </si>
+  <si>
+    <t>115.MP3</t>
+  </si>
+  <si>
+    <t>116.MP3</t>
+  </si>
+  <si>
+    <t>117.MP3</t>
+  </si>
+  <si>
+    <t>118.MP3</t>
+  </si>
+  <si>
+    <t>119.MP3</t>
+  </si>
+  <si>
+    <t>120.MP3</t>
+  </si>
+  <si>
+    <t>121.MP3</t>
+  </si>
+  <si>
+    <t>123.MP3</t>
+  </si>
+  <si>
+    <t>122.MP3</t>
+  </si>
+  <si>
+    <t>124.MP3</t>
+  </si>
+  <si>
+    <t>125.MP3</t>
+  </si>
+  <si>
+    <t>126.MP3</t>
+  </si>
+  <si>
+    <t>127.MP3</t>
+  </si>
+  <si>
+    <t>128.MP3</t>
   </si>
 </sst>
 </file>
@@ -11816,7 +12104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -11828,6 +12116,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12144,8 +12435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61352E50-5523-4349-B70B-4AFA681973B4}">
   <dimension ref="A1:E1591"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+    <sheetView topLeftCell="A1573" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35660,7 +35951,7 @@
     </row>
     <row r="1548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1548">
-        <f t="shared" ref="A1548:A1592" si="24">A1547+1</f>
+        <f t="shared" ref="A1548:A1591" si="24">A1547+1</f>
         <v>1547</v>
       </c>
       <c r="B1548" t="s">
@@ -36328,8 +36619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9601F30-4DCE-4DC4-88B3-0E0FDE81A689}">
   <dimension ref="A1:E200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="G100" sqref="G100"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="E195" sqref="E195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36389,7 +36680,7 @@
         <v>3413</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>3823</v>
+        <v>3815</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -36407,7 +36698,7 @@
         <v>3415</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>3824</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -36425,7 +36716,7 @@
         <v>3417</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>3825</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -36443,7 +36734,7 @@
         <v>3420</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>3826</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -36461,7 +36752,7 @@
         <v>3422</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>3827</v>
+        <v>3818</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -36479,7 +36770,7 @@
         <v>3424</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>3831</v>
+        <v>3820</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -36497,7 +36788,7 @@
         <v>3426</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>3832</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -36515,7 +36806,7 @@
         <v>3428</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>3833</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -36533,7 +36824,7 @@
         <v>3430</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>3834</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -36551,7 +36842,7 @@
         <v>3432</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>3835</v>
+        <v>3823</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -36569,7 +36860,7 @@
         <v>3434</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>3830</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -36587,7 +36878,7 @@
         <v>3437</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>3829</v>
+        <v>3826</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -36605,7 +36896,7 @@
         <v>3439</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>3828</v>
+        <v>3827</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -36623,7 +36914,7 @@
         <v>3441</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>3815</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -36641,7 +36932,7 @@
         <v>3443</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>3816</v>
+        <v>3829</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -36659,7 +36950,7 @@
         <v>3445</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>3817</v>
+        <v>3830</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -36677,7 +36968,7 @@
         <v>3447</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>3818</v>
+        <v>3838</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -36695,7 +36986,7 @@
         <v>3449</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>3819</v>
+        <v>3839</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -36713,7 +37004,7 @@
         <v>3451</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>3820</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -36731,7 +37022,7 @@
         <v>3453</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>3821</v>
+        <v>3841</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -36749,7 +37040,7 @@
         <v>3455</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>3822</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -36767,7 +37058,7 @@
         <v>3457</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>3836</v>
+        <v>3843</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -36785,7 +37076,7 @@
         <v>3459</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>3837</v>
+        <v>3844</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -36803,7 +37094,7 @@
         <v>3461</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>3838</v>
+        <v>3845</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -36821,7 +37112,7 @@
         <v>3463</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>3839</v>
+        <v>3846</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -36839,7 +37130,7 @@
         <v>3465</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>3840</v>
+        <v>3847</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -36857,7 +37148,7 @@
         <v>3467</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>3841</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -36875,7 +37166,7 @@
         <v>3469</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>3842</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -36893,7 +37184,7 @@
         <v>3471</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>3843</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -36911,7 +37202,7 @@
         <v>3474</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>3844</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -36929,7 +37220,7 @@
         <v>3476</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>3845</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -36947,7 +37238,7 @@
         <v>3479</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>3846</v>
+        <v>3837</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -36965,7 +37256,7 @@
         <v>3481</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>3847</v>
+        <v>3836</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -36983,7 +37274,7 @@
         <v>3483</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>3848</v>
+        <v>3835</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -37001,7 +37292,7 @@
         <v>3485</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>3849</v>
+        <v>3834</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -37019,7 +37310,7 @@
         <v>3487</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>3850</v>
+        <v>3833</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -37037,7 +37328,7 @@
         <v>3489</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>3851</v>
+        <v>3832</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -37055,7 +37346,7 @@
         <v>3491</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>3852</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -37073,7 +37364,7 @@
         <v>3493</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>3853</v>
+        <v>3872</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -37091,7 +37382,7 @@
         <v>3495</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>3854</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -37109,7 +37400,7 @@
         <v>3497</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>3855</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -37127,7 +37418,7 @@
         <v>3499</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>3856</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -37145,7 +37436,7 @@
         <v>3501</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>3857</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -37163,7 +37454,7 @@
         <v>3503</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>3858</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -37181,7 +37472,7 @@
         <v>3505</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>3860</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -37199,7 +37490,7 @@
         <v>3507</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>3861</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -37217,7 +37508,7 @@
         <v>3509</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>3862</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -37235,7 +37526,7 @@
         <v>3511</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>3863</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -37253,7 +37544,7 @@
         <v>3513</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>3864</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -37271,7 +37562,7 @@
         <v>3515</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>3865</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -37289,7 +37580,7 @@
         <v>3517</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>3866</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -37307,7 +37598,7 @@
         <v>3519</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>3867</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -37325,7 +37616,7 @@
         <v>3521</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>3868</v>
+        <v>3901</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -37343,7 +37634,7 @@
         <v>3523</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>3869</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -37361,7 +37652,7 @@
         <v>3526</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>3870</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -37379,7 +37670,7 @@
         <v>3529</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>3871</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -37397,7 +37688,7 @@
         <v>3531</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>3872</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -37415,7 +37706,7 @@
         <v>3533</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>3873</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -37433,7 +37724,7 @@
         <v>3535</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>3874</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -37451,7 +37742,7 @@
         <v>3538</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>3879</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -37469,7 +37760,7 @@
         <v>3540</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>3880</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -37487,7 +37778,7 @@
         <v>3542</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>3881</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -37505,7 +37796,7 @@
         <v>3544</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>3882</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -37523,7 +37814,7 @@
         <v>3546</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>3859</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -37541,7 +37832,7 @@
         <v>3548</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>3883</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -37559,7 +37850,7 @@
         <v>3550</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>3884</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -37577,7 +37868,7 @@
         <v>3552</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>3885</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -37595,7 +37886,7 @@
         <v>3554</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>3886</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -37613,7 +37904,7 @@
         <v>3556</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>3887</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -37631,7 +37922,7 @@
         <v>3558</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>3888</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -37649,7 +37940,7 @@
         <v>3560</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>3889</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -37667,7 +37958,7 @@
         <v>3562</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>3890</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -37685,7 +37976,7 @@
         <v>3564</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>3891</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -37703,7 +37994,7 @@
         <v>3566</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>3892</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -37721,7 +38012,7 @@
         <v>3568</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>3893</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -37739,7 +38030,7 @@
         <v>3570</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>3895</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -37757,7 +38048,7 @@
         <v>3572</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>3896</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -37775,7 +38066,7 @@
         <v>3574</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>3897</v>
+        <v>3884</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -37793,7 +38084,7 @@
         <v>3576</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>3898</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -37811,7 +38102,7 @@
         <v>3578</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>3899</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -37829,7 +38120,7 @@
         <v>3580</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>3900</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -37847,7 +38138,7 @@
         <v>3582</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>3901</v>
+        <v>3888</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -37865,7 +38156,7 @@
         <v>3584</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>3902</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -37883,7 +38174,7 @@
         <v>3586</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>3903</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -37901,7 +38192,7 @@
         <v>3588</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>3904</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -37919,7 +38210,7 @@
         <v>3590</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>3905</v>
+        <v>3892</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -37937,7 +38228,7 @@
         <v>3592</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>3906</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -37955,7 +38246,7 @@
         <v>3594</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>3907</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -37973,7 +38264,7 @@
         <v>3596</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>3908</v>
+        <v>3882</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -37991,7 +38282,7 @@
         <v>3598</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>3909</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -38009,7 +38300,7 @@
         <v>3600</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>3910</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -38027,7 +38318,7 @@
         <v>3602</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>3911</v>
+        <v>3867</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -38045,7 +38336,7 @@
         <v>3604</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>3912</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -38063,7 +38354,7 @@
         <v>3606</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>3913</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -38081,7 +38372,7 @@
         <v>3608</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>3894</v>
+        <v>3864</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -38099,7 +38390,7 @@
         <v>3610</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>3878</v>
+        <v>3863</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -38117,7 +38408,7 @@
         <v>3612</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>3877</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -38135,7 +38426,7 @@
         <v>3614</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>3876</v>
+        <v>3861</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -38153,7 +38444,7 @@
         <v>3616</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>3875</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -38170,7 +38461,9 @@
       <c r="D102" s="3" t="s">
         <v>3618</v>
       </c>
-      <c r="E102" s="4"/>
+      <c r="E102" s="5" t="s">
+        <v>3850</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
@@ -38186,7 +38479,9 @@
       <c r="D103" s="3" t="s">
         <v>3620</v>
       </c>
-      <c r="E103" s="4"/>
+      <c r="E103" s="5" t="s">
+        <v>3851</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
@@ -38202,7 +38497,9 @@
       <c r="D104" s="3" t="s">
         <v>3622</v>
       </c>
-      <c r="E104" s="4"/>
+      <c r="E104" s="5" t="s">
+        <v>3852</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
@@ -38218,7 +38515,9 @@
       <c r="D105" s="3" t="s">
         <v>3624</v>
       </c>
-      <c r="E105" s="4"/>
+      <c r="E105" s="5" t="s">
+        <v>3853</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
@@ -38234,7 +38533,9 @@
       <c r="D106" s="3" t="s">
         <v>3626</v>
       </c>
-      <c r="E106" s="4"/>
+      <c r="E106" s="5" t="s">
+        <v>3854</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
@@ -38250,7 +38551,9 @@
       <c r="D107" s="3" t="s">
         <v>3628</v>
       </c>
-      <c r="E107" s="4"/>
+      <c r="E107" s="5" t="s">
+        <v>3855</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
@@ -38266,7 +38569,9 @@
       <c r="D108" s="3" t="s">
         <v>3630</v>
       </c>
-      <c r="E108" s="4"/>
+      <c r="E108" s="5" t="s">
+        <v>3856</v>
+      </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
@@ -38282,7 +38587,9 @@
       <c r="D109" s="3" t="s">
         <v>3632</v>
       </c>
-      <c r="E109" s="4"/>
+      <c r="E109" s="5" t="s">
+        <v>3857</v>
+      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
@@ -38298,7 +38605,9 @@
       <c r="D110" s="3" t="s">
         <v>3634</v>
       </c>
-      <c r="E110" s="4"/>
+      <c r="E110" s="5" t="s">
+        <v>3858</v>
+      </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
@@ -38314,7 +38623,9 @@
       <c r="D111" s="3" t="s">
         <v>3636</v>
       </c>
-      <c r="E111" s="4"/>
+      <c r="E111" s="5" t="s">
+        <v>3859</v>
+      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
@@ -38330,7 +38641,9 @@
       <c r="D112" s="3" t="s">
         <v>3638</v>
       </c>
-      <c r="E112" s="4"/>
+      <c r="E112" s="5" t="s">
+        <v>3860</v>
+      </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
@@ -38346,7 +38659,9 @@
       <c r="D113" s="3" t="s">
         <v>3640</v>
       </c>
-      <c r="E113" s="4"/>
+      <c r="E113" s="5" t="s">
+        <v>3959</v>
+      </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
@@ -38362,7 +38677,9 @@
       <c r="D114" s="3" t="s">
         <v>3642</v>
       </c>
-      <c r="E114" s="4"/>
+      <c r="E114" s="5" t="s">
+        <v>3994</v>
+      </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
@@ -38378,7 +38695,9 @@
       <c r="D115" s="3" t="s">
         <v>3644</v>
       </c>
-      <c r="E115" s="4"/>
+      <c r="E115" s="5" t="s">
+        <v>3995</v>
+      </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
@@ -38394,7 +38713,9 @@
       <c r="D116" s="3" t="s">
         <v>3646</v>
       </c>
-      <c r="E116" s="4"/>
+      <c r="E116" s="5" t="s">
+        <v>3996</v>
+      </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
@@ -38410,7 +38731,9 @@
       <c r="D117" s="3" t="s">
         <v>3648</v>
       </c>
-      <c r="E117" s="4"/>
+      <c r="E117" s="5" t="s">
+        <v>3997</v>
+      </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
@@ -38426,7 +38749,9 @@
       <c r="D118" s="3" t="s">
         <v>3650</v>
       </c>
-      <c r="E118" s="4"/>
+      <c r="E118" s="5" t="s">
+        <v>3998</v>
+      </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
@@ -38442,7 +38767,9 @@
       <c r="D119" s="3" t="s">
         <v>3652</v>
       </c>
-      <c r="E119" s="4"/>
+      <c r="E119" s="5" t="s">
+        <v>3999</v>
+      </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
@@ -38458,7 +38785,9 @@
       <c r="D120" s="3" t="s">
         <v>3654</v>
       </c>
-      <c r="E120" s="4"/>
+      <c r="E120" s="5" t="s">
+        <v>4000</v>
+      </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
@@ -38474,7 +38803,9 @@
       <c r="D121" s="3" t="s">
         <v>3656</v>
       </c>
-      <c r="E121" s="4"/>
+      <c r="E121" s="5" t="s">
+        <v>4001</v>
+      </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
@@ -38490,7 +38821,9 @@
       <c r="D122" s="3" t="s">
         <v>3658</v>
       </c>
-      <c r="E122" s="4"/>
+      <c r="E122" s="5" t="s">
+        <v>4002</v>
+      </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
@@ -38506,7 +38839,9 @@
       <c r="D123" s="3" t="s">
         <v>3660</v>
       </c>
-      <c r="E123" s="4"/>
+      <c r="E123" s="5" t="s">
+        <v>4004</v>
+      </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
@@ -38522,7 +38857,9 @@
       <c r="D124" s="3" t="s">
         <v>3662</v>
       </c>
-      <c r="E124" s="4"/>
+      <c r="E124" s="5" t="s">
+        <v>4003</v>
+      </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
@@ -38538,7 +38875,9 @@
       <c r="D125" s="3" t="s">
         <v>3664</v>
       </c>
-      <c r="E125" s="4"/>
+      <c r="E125" s="5" t="s">
+        <v>4005</v>
+      </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
@@ -38554,7 +38893,9 @@
       <c r="D126" s="3" t="s">
         <v>3666</v>
       </c>
-      <c r="E126" s="4"/>
+      <c r="E126" s="5" t="s">
+        <v>4006</v>
+      </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
@@ -38570,7 +38911,9 @@
       <c r="D127" s="3" t="s">
         <v>3668</v>
       </c>
-      <c r="E127" s="4"/>
+      <c r="E127" s="5" t="s">
+        <v>4007</v>
+      </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
@@ -38586,7 +38929,9 @@
       <c r="D128" s="3" t="s">
         <v>3670</v>
       </c>
-      <c r="E128" s="4"/>
+      <c r="E128" s="5" t="s">
+        <v>4008</v>
+      </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
@@ -38602,7 +38947,9 @@
       <c r="D129" s="3" t="s">
         <v>3672</v>
       </c>
-      <c r="E129" s="4"/>
+      <c r="E129" s="5" t="s">
+        <v>4009</v>
+      </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
@@ -38618,7 +38965,9 @@
       <c r="D130" s="3" t="s">
         <v>3674</v>
       </c>
-      <c r="E130" s="4"/>
+      <c r="E130" s="5" t="s">
+        <v>3991</v>
+      </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
@@ -38634,7 +38983,9 @@
       <c r="D131" s="3" t="s">
         <v>3676</v>
       </c>
-      <c r="E131" s="4"/>
+      <c r="E131" s="5" t="s">
+        <v>3992</v>
+      </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
@@ -38650,7 +39001,9 @@
       <c r="D132" s="3" t="s">
         <v>3679</v>
       </c>
-      <c r="E132" s="4"/>
+      <c r="E132" s="5" t="s">
+        <v>3990</v>
+      </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
@@ -38666,7 +39019,9 @@
       <c r="D133" s="3" t="s">
         <v>3681</v>
       </c>
-      <c r="E133" s="4"/>
+      <c r="E133" s="5" t="s">
+        <v>3989</v>
+      </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
@@ -38682,7 +39037,9 @@
       <c r="D134" s="3" t="s">
         <v>3683</v>
       </c>
-      <c r="E134" s="4"/>
+      <c r="E134" s="5" t="s">
+        <v>3988</v>
+      </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
@@ -38698,7 +39055,9 @@
       <c r="D135" s="3" t="s">
         <v>3685</v>
       </c>
-      <c r="E135" s="4"/>
+      <c r="E135" s="5" t="s">
+        <v>3993</v>
+      </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
@@ -38714,7 +39073,9 @@
       <c r="D136" s="3" t="s">
         <v>3687</v>
       </c>
-      <c r="E136" s="4"/>
+      <c r="E136" s="5" t="s">
+        <v>3987</v>
+      </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
@@ -38730,7 +39091,9 @@
       <c r="D137" s="3" t="s">
         <v>3689</v>
       </c>
-      <c r="E137" s="4"/>
+      <c r="E137" s="5" t="s">
+        <v>3986</v>
+      </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
@@ -38746,7 +39109,9 @@
       <c r="D138" s="3" t="s">
         <v>3691</v>
       </c>
-      <c r="E138" s="4"/>
+      <c r="E138" s="5" t="s">
+        <v>3985</v>
+      </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
@@ -38762,7 +39127,9 @@
       <c r="D139" s="3" t="s">
         <v>3693</v>
       </c>
-      <c r="E139" s="4"/>
+      <c r="E139" s="5" t="s">
+        <v>3984</v>
+      </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
@@ -38778,7 +39145,9 @@
       <c r="D140" s="3" t="s">
         <v>3695</v>
       </c>
-      <c r="E140" s="4"/>
+      <c r="E140" s="5" t="s">
+        <v>3983</v>
+      </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
@@ -38794,7 +39163,9 @@
       <c r="D141" s="3" t="s">
         <v>3697</v>
       </c>
-      <c r="E141" s="4"/>
+      <c r="E141" s="5" t="s">
+        <v>3978</v>
+      </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
@@ -38810,7 +39181,9 @@
       <c r="D142" s="3" t="s">
         <v>3699</v>
       </c>
-      <c r="E142" s="4"/>
+      <c r="E142" s="5" t="s">
+        <v>3979</v>
+      </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
@@ -38826,7 +39199,9 @@
       <c r="D143" s="3" t="s">
         <v>3701</v>
       </c>
-      <c r="E143" s="4"/>
+      <c r="E143" s="5" t="s">
+        <v>3980</v>
+      </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
@@ -38842,7 +39217,9 @@
       <c r="D144" s="3" t="s">
         <v>3703</v>
       </c>
-      <c r="E144" s="4"/>
+      <c r="E144" s="5" t="s">
+        <v>3981</v>
+      </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
@@ -38858,7 +39235,9 @@
       <c r="D145" s="3" t="s">
         <v>3705</v>
       </c>
-      <c r="E145" s="4"/>
+      <c r="E145" s="5" t="s">
+        <v>3982</v>
+      </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
@@ -38874,7 +39253,9 @@
       <c r="D146" s="3" t="s">
         <v>3707</v>
       </c>
-      <c r="E146" s="4"/>
+      <c r="E146" s="5" t="s">
+        <v>3977</v>
+      </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
@@ -38890,7 +39271,9 @@
       <c r="D147" s="3" t="s">
         <v>3709</v>
       </c>
-      <c r="E147" s="4"/>
+      <c r="E147" s="5" t="s">
+        <v>3976</v>
+      </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
@@ -38906,7 +39289,9 @@
       <c r="D148" s="3" t="s">
         <v>3711</v>
       </c>
-      <c r="E148" s="4"/>
+      <c r="E148" s="5" t="s">
+        <v>3975</v>
+      </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
@@ -38922,7 +39307,9 @@
       <c r="D149" s="3" t="s">
         <v>3713</v>
       </c>
-      <c r="E149" s="4"/>
+      <c r="E149" s="5" t="s">
+        <v>3974</v>
+      </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
@@ -38938,7 +39325,9 @@
       <c r="D150" s="3" t="s">
         <v>3715</v>
       </c>
-      <c r="E150" s="4"/>
+      <c r="E150" s="5" t="s">
+        <v>3973</v>
+      </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
@@ -38954,7 +39343,9 @@
       <c r="D151" s="3" t="s">
         <v>3717</v>
       </c>
-      <c r="E151" s="4"/>
+      <c r="E151" s="5" t="s">
+        <v>3972</v>
+      </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
@@ -38970,7 +39361,9 @@
       <c r="D152" s="3" t="s">
         <v>3719</v>
       </c>
-      <c r="E152" s="4"/>
+      <c r="E152" s="5" t="s">
+        <v>3971</v>
+      </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
@@ -38986,7 +39379,9 @@
       <c r="D153" s="3" t="s">
         <v>3721</v>
       </c>
-      <c r="E153" s="4"/>
+      <c r="E153" s="5" t="s">
+        <v>3970</v>
+      </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
@@ -39002,7 +39397,9 @@
       <c r="D154" s="3" t="s">
         <v>3724</v>
       </c>
-      <c r="E154" s="4"/>
+      <c r="E154" s="5" t="s">
+        <v>3969</v>
+      </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
@@ -39018,7 +39415,9 @@
       <c r="D155" s="3" t="s">
         <v>3727</v>
       </c>
-      <c r="E155" s="4"/>
+      <c r="E155" s="5" t="s">
+        <v>3968</v>
+      </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
@@ -39034,7 +39433,9 @@
       <c r="D156" s="3" t="s">
         <v>3730</v>
       </c>
-      <c r="E156" s="4"/>
+      <c r="E156" s="5" t="s">
+        <v>3967</v>
+      </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
@@ -39050,7 +39451,9 @@
       <c r="D157" s="3" t="s">
         <v>3733</v>
       </c>
-      <c r="E157" s="4"/>
+      <c r="E157" s="5" t="s">
+        <v>3966</v>
+      </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
@@ -39066,7 +39469,9 @@
       <c r="D158" s="3" t="s">
         <v>3735</v>
       </c>
-      <c r="E158" s="4"/>
+      <c r="E158" s="5" t="s">
+        <v>3965</v>
+      </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
@@ -39082,7 +39487,9 @@
       <c r="D159" s="3" t="s">
         <v>3737</v>
       </c>
-      <c r="E159" s="4"/>
+      <c r="E159" s="5" t="s">
+        <v>3960</v>
+      </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
@@ -39098,7 +39505,9 @@
       <c r="D160" s="3" t="s">
         <v>3739</v>
       </c>
-      <c r="E160" s="4"/>
+      <c r="E160" s="5" t="s">
+        <v>3961</v>
+      </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
@@ -39114,7 +39523,9 @@
       <c r="D161" s="3" t="s">
         <v>3741</v>
       </c>
-      <c r="E161" s="4"/>
+      <c r="E161" s="5" t="s">
+        <v>3962</v>
+      </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
@@ -39130,7 +39541,9 @@
       <c r="D162" s="3" t="s">
         <v>3743</v>
       </c>
-      <c r="E162" s="4"/>
+      <c r="E162" s="5" t="s">
+        <v>3963</v>
+      </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
@@ -39146,7 +39559,9 @@
       <c r="D163" s="3" t="s">
         <v>3745</v>
       </c>
-      <c r="E163" s="4"/>
+      <c r="E163" s="5" t="s">
+        <v>3964</v>
+      </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
@@ -39162,7 +39577,9 @@
       <c r="D164" s="3" t="s">
         <v>3747</v>
       </c>
-      <c r="E164" s="4"/>
+      <c r="E164" s="5" t="s">
+        <v>3958</v>
+      </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
@@ -39178,7 +39595,9 @@
       <c r="D165" s="3" t="s">
         <v>3749</v>
       </c>
-      <c r="E165" s="4"/>
+      <c r="E165" s="5" t="s">
+        <v>3957</v>
+      </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
@@ -39194,7 +39613,9 @@
       <c r="D166" s="3" t="s">
         <v>3751</v>
       </c>
-      <c r="E166" s="4"/>
+      <c r="E166" s="5" t="s">
+        <v>3956</v>
+      </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
@@ -39210,7 +39631,9 @@
       <c r="D167" s="3" t="s">
         <v>3753</v>
       </c>
-      <c r="E167" s="4"/>
+      <c r="E167" s="5" t="s">
+        <v>3955</v>
+      </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
@@ -39226,7 +39649,9 @@
       <c r="D168" s="3" t="s">
         <v>3755</v>
       </c>
-      <c r="E168" s="4"/>
+      <c r="E168" s="5" t="s">
+        <v>3939</v>
+      </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
@@ -39242,7 +39667,9 @@
       <c r="D169" s="3" t="s">
         <v>3757</v>
       </c>
-      <c r="E169" s="4"/>
+      <c r="E169" s="5" t="s">
+        <v>3940</v>
+      </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
@@ -39258,7 +39685,9 @@
       <c r="D170" s="3" t="s">
         <v>3759</v>
       </c>
-      <c r="E170" s="4"/>
+      <c r="E170" s="5" t="s">
+        <v>3941</v>
+      </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
@@ -39274,7 +39703,9 @@
       <c r="D171" s="3" t="s">
         <v>3761</v>
       </c>
-      <c r="E171" s="4"/>
+      <c r="E171" s="5" t="s">
+        <v>3942</v>
+      </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
@@ -39290,7 +39721,9 @@
       <c r="D172" s="3" t="s">
         <v>3763</v>
       </c>
-      <c r="E172" s="4"/>
+      <c r="E172" s="5" t="s">
+        <v>3943</v>
+      </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
@@ -39306,7 +39739,9 @@
       <c r="D173" s="3" t="s">
         <v>3765</v>
       </c>
-      <c r="E173" s="4"/>
+      <c r="E173" s="5" t="s">
+        <v>3944</v>
+      </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
@@ -39322,7 +39757,9 @@
       <c r="D174" s="3" t="s">
         <v>3767</v>
       </c>
-      <c r="E174" s="4"/>
+      <c r="E174" s="5" t="s">
+        <v>3945</v>
+      </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
@@ -39338,7 +39775,9 @@
       <c r="D175" s="3" t="s">
         <v>3769</v>
       </c>
-      <c r="E175" s="4"/>
+      <c r="E175" s="5" t="s">
+        <v>3946</v>
+      </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
@@ -39354,7 +39793,9 @@
       <c r="D176" s="3" t="s">
         <v>3771</v>
       </c>
-      <c r="E176" s="4"/>
+      <c r="E176" s="5" t="s">
+        <v>3947</v>
+      </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
@@ -39370,7 +39811,9 @@
       <c r="D177" s="3" t="s">
         <v>3773</v>
       </c>
-      <c r="E177" s="4"/>
+      <c r="E177" s="5" t="s">
+        <v>3954</v>
+      </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
@@ -39386,7 +39829,9 @@
       <c r="D178" s="3" t="s">
         <v>3775</v>
       </c>
-      <c r="E178" s="4"/>
+      <c r="E178" s="5" t="s">
+        <v>3953</v>
+      </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
@@ -39402,7 +39847,9 @@
       <c r="D179" s="3" t="s">
         <v>3777</v>
       </c>
-      <c r="E179" s="4"/>
+      <c r="E179" s="5" t="s">
+        <v>3952</v>
+      </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
@@ -39418,7 +39865,9 @@
       <c r="D180" s="3" t="s">
         <v>3779</v>
       </c>
-      <c r="E180" s="4"/>
+      <c r="E180" s="5" t="s">
+        <v>3951</v>
+      </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
@@ -39434,7 +39883,9 @@
       <c r="D181" s="3" t="s">
         <v>3781</v>
       </c>
-      <c r="E181" s="4"/>
+      <c r="E181" s="5" t="s">
+        <v>3950</v>
+      </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
@@ -39450,7 +39901,9 @@
       <c r="D182" s="3" t="s">
         <v>3783</v>
       </c>
-      <c r="E182" s="4"/>
+      <c r="E182" s="5" t="s">
+        <v>3948</v>
+      </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
@@ -39466,7 +39919,9 @@
       <c r="D183" s="3" t="s">
         <v>3785</v>
       </c>
-      <c r="E183" s="4"/>
+      <c r="E183" s="5" t="s">
+        <v>3949</v>
+      </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
@@ -39482,7 +39937,9 @@
       <c r="D184" s="3" t="s">
         <v>3787</v>
       </c>
-      <c r="E184" s="4"/>
+      <c r="E184" s="5" t="s">
+        <v>3938</v>
+      </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
@@ -39498,7 +39955,9 @@
       <c r="D185" s="3" t="s">
         <v>3789</v>
       </c>
-      <c r="E185" s="4"/>
+      <c r="E185" s="5" t="s">
+        <v>3937</v>
+      </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
@@ -39514,7 +39973,9 @@
       <c r="D186" s="3" t="s">
         <v>3791</v>
       </c>
-      <c r="E186" s="4"/>
+      <c r="E186" s="5" t="s">
+        <v>3936</v>
+      </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
@@ -39530,7 +39991,9 @@
       <c r="D187" s="3" t="s">
         <v>3793</v>
       </c>
-      <c r="E187" s="4"/>
+      <c r="E187" s="5" t="s">
+        <v>3935</v>
+      </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
@@ -39546,7 +40009,9 @@
       <c r="D188" s="3" t="s">
         <v>3795</v>
       </c>
-      <c r="E188" s="4"/>
+      <c r="E188" s="5" t="s">
+        <v>3934</v>
+      </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
@@ -39562,7 +40027,9 @@
       <c r="D189" s="3" t="s">
         <v>3797</v>
       </c>
-      <c r="E189" s="4"/>
+      <c r="E189" s="5" t="s">
+        <v>3933</v>
+      </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
@@ -39578,7 +40045,9 @@
       <c r="D190" s="3" t="s">
         <v>3799</v>
       </c>
-      <c r="E190" s="4"/>
+      <c r="E190" s="5" t="s">
+        <v>3932</v>
+      </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
@@ -39594,7 +40063,9 @@
       <c r="D191" s="3" t="s">
         <v>3801</v>
       </c>
-      <c r="E191" s="4"/>
+      <c r="E191" s="5" t="s">
+        <v>3931</v>
+      </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
@@ -39610,7 +40081,9 @@
       <c r="D192" s="3" t="s">
         <v>3803</v>
       </c>
-      <c r="E192" s="4"/>
+      <c r="E192" s="5" t="s">
+        <v>3930</v>
+      </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
@@ -39626,7 +40099,9 @@
       <c r="D193" s="3" t="s">
         <v>3805</v>
       </c>
-      <c r="E193" s="4"/>
+      <c r="E193" s="5" t="s">
+        <v>3929</v>
+      </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
@@ -39642,7 +40117,9 @@
       <c r="D194" s="3" t="s">
         <v>3807</v>
       </c>
-      <c r="E194" s="4"/>
+      <c r="E194" s="5" t="s">
+        <v>3928</v>
+      </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
@@ -39658,7 +40135,9 @@
       <c r="D195" s="3" t="s">
         <v>3809</v>
       </c>
-      <c r="E195" s="4"/>
+      <c r="E195" s="5" t="s">
+        <v>3927</v>
+      </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
@@ -39674,7 +40153,9 @@
       <c r="D196" s="3" t="s">
         <v>3811</v>
       </c>
-      <c r="E196" s="4"/>
+      <c r="E196" s="5" t="s">
+        <v>3926</v>
+      </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
@@ -39690,7 +40171,9 @@
       <c r="D197" s="3" t="s">
         <v>3813</v>
       </c>
-      <c r="E197" s="4"/>
+      <c r="E197" s="5" t="s">
+        <v>3925</v>
+      </c>
     </row>
     <row r="198" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B198" s="2"/>
